--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x4.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6640907166092388</v>
+        <v>0.6996287832750518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6915278807309394</v>
+        <v>0.7160018521128357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9603238497156474</v>
+        <v>0.9771326445742159</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.94400984971492</v>
+        <v>59.00671398875061</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.00600268896063</v>
+        <v>37.45022494486428</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484975156243587</v>
+        <v>0.848273904198253</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.32712547314436</v>
+        <v>15.07986447151566</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7106539616708993</v>
+        <v>0.6946041641933388</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.162025937136811</v>
+        <v>5.093037632334205</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6622901684569042</v>
+        <v>0.5773298446780948</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4488557504731169</v>
+        <v>1.383586940036473</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2308913405560246</v>
+        <v>0.3933848583393298</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08368160919752661</v>
+        <v>0.125995369091719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09357093548858682</v>
+        <v>0.1405093211072647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8943119865220708</v>
+        <v>0.896704703281103</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42374.5763686129</v>
+        <v>42239.97221470358</v>
       </c>
       <c r="C2" t="n">
-        <v>42802.60239253828</v>
+        <v>42666.63860071068</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91152.1905413888</v>
+        <v>89323.1193781547</v>
       </c>
       <c r="C3" t="n">
-        <v>92072.91973877657</v>
+        <v>90225.37310924717</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40280.37800188201</v>
+        <v>40863.74337192404</v>
       </c>
       <c r="C4" t="n">
-        <v>40687.25050695152</v>
+        <v>41276.50845648893</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.6876720035761</v>
+        <v>509.7725080043176</v>
       </c>
       <c r="C5" t="n">
-        <v>513.8259313167435</v>
+        <v>514.9217252568865</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33054.97522247831</v>
+        <v>33489.80411327392</v>
       </c>
       <c r="C6" t="n">
-        <v>33388.8638610892</v>
+        <v>33828.08496290295</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38585.351911174</v>
+        <v>39332.7911128456</v>
       </c>
       <c r="C7" t="n">
-        <v>38975.1029405798</v>
+        <v>39730.09203317737</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.89050189183153</v>
+        <v>83.41768965121155</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.24223990165315</v>
+        <v>65.25694688588273</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.248024623429051</v>
+        <v>5.706129879819467</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.0654721533036</v>
+        <v>465.2964401422493</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.6520479520398</v>
+        <v>870.9135198419741</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.6881385680887</v>
+        <v>309.1851822539809</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.5866689105503</v>
+        <v>697.4011566620711</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3499934862167</v>
+        <v>235.8474019456133</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.3410408408747</v>
+        <v>618.0223269682473</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.4292993971112</v>
+        <v>234.9252137090664</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.3529024876209</v>
+        <v>617.0320812942969</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.2479148843579</v>
+        <v>173.9765336318373</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.1427975827082</v>
+        <v>551.9773105408772</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.2208055075293</v>
+        <v>101.585150841087</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.1897995140653</v>
+        <v>475.5723933821017</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.0431084590899</v>
+        <v>507.2078800031195</v>
       </c>
       <c r="C3" t="n">
-        <v>7.921528221685327</v>
+        <v>8.386791597844351</v>
       </c>
       <c r="D3" t="n">
-        <v>3420.273751719487</v>
+        <v>3412.788080417983</v>
       </c>
       <c r="E3" t="n">
-        <v>63.63324551387761</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.4637754892875</v>
+        <v>301.1477173229218</v>
       </c>
       <c r="C4" t="n">
-        <v>8.285234538439612</v>
+        <v>8.727630257223765</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.370791341578</v>
+        <v>2747.400751937154</v>
       </c>
       <c r="E4" t="n">
-        <v>63.63324551387761</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.8837221446884</v>
+        <v>299.2005569132017</v>
       </c>
       <c r="C5" t="n">
-        <v>8.285234538439612</v>
+        <v>8.727630257223765</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.938512419442</v>
+        <v>1340.256312547436</v>
       </c>
       <c r="E5" t="n">
-        <v>63.63324551387761</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.0741173818101</v>
+        <v>163.7696771917749</v>
       </c>
       <c r="C6" t="n">
-        <v>8.285234538439612</v>
+        <v>8.727630257223765</v>
       </c>
       <c r="D6" t="n">
-        <v>688.9307629915024</v>
+        <v>696.5082986201779</v>
       </c>
       <c r="E6" t="n">
-        <v>63.63324551387761</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.6952001714113</v>
+        <v>162.3028421446556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6292433246808675</v>
+        <v>0.6552990182611934</v>
       </c>
       <c r="D7" t="n">
-        <v>678.4945403653218</v>
+        <v>685.4866640531952</v>
       </c>
       <c r="E7" t="n">
-        <v>63.63324551387761</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.3009246726207</v>
+        <v>175.6942372142238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6228314653027087</v>
+        <v>0.6489895091328209</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.365993835083</v>
+        <v>2792.781320018936</v>
       </c>
       <c r="E8" t="n">
-        <v>15.34001960506608</v>
+        <v>15.52671300561888</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.6952000435195</v>
+        <v>162.3028420134568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6292433246808675</v>
+        <v>0.6552990182611934</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.203733912064</v>
+        <v>2759.947039543886</v>
       </c>
       <c r="E9" t="n">
-        <v>15.34001960506608</v>
+        <v>15.52671300561888</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.326493225974</v>
+        <v>158.5621516995726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6292433246808675</v>
+        <v>0.6552990182611934</v>
       </c>
       <c r="D10" t="n">
-        <v>663.9002782290416</v>
+        <v>669.2648451509689</v>
       </c>
       <c r="E10" t="n">
-        <v>78.9732651189437</v>
+        <v>79.00448293376698</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.326493225974</v>
+        <v>158.5621516995726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6292433246808675</v>
+        <v>0.6552990182611934</v>
       </c>
       <c r="D11" t="n">
-        <v>663.9002782290416</v>
+        <v>669.2648451509689</v>
       </c>
       <c r="E11" t="n">
-        <v>93.60644737922203</v>
+        <v>94.19877938923663</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6292433246808675</v>
+        <v>0.6552990182611934</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6920059152212</v>
+        <v>251.7138843669858</v>
       </c>
       <c r="E12" t="n">
-        <v>93.60453461698891</v>
+        <v>94.19586523346921</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.71879002703906</v>
+        <v>40.78517176987685</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>175.3247402522944</v>
+        <v>171.4239904625914</v>
       </c>
       <c r="E13" t="n">
-        <v>74.56689672513332</v>
+        <v>79.00433669098872</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.71879002703906</v>
+        <v>40.78517176987685</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>175.3247402522944</v>
+        <v>171.4239904625914</v>
       </c>
       <c r="E14" t="n">
-        <v>74.56689672513332</v>
+        <v>79.00433669098872</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66.79013587656834</v>
+        <v>64.3571192531839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02711600172618474</v>
+        <v>0.02433026610110765</v>
       </c>
       <c r="D15" t="n">
-        <v>279.6147259402068</v>
+        <v>269.4234644442217</v>
       </c>
       <c r="E15" t="n">
-        <v>65.35850055770506</v>
+        <v>65.16577876739436</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.71789027542468</v>
+        <v>43.19785744504799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02712325063263639</v>
+        <v>0.02431925673564516</v>
       </c>
       <c r="D16" t="n">
-        <v>183.090629506188</v>
+        <v>180.9144073330448</v>
       </c>
       <c r="E16" t="n">
-        <v>65.36688486391994</v>
+        <v>65.15171114306912</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.02538002856052</v>
+        <v>53.54008603900188</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>230.3912661795829</v>
+        <v>224.1723402453009</v>
       </c>
       <c r="E19" t="n">
         <v>87.1363880734414</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.2669258747897</v>
+        <v>100.9254623905589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1024001476818289</v>
+        <v>0.1048080991033108</v>
       </c>
       <c r="D20" t="n">
-        <v>2629.298475567169</v>
+        <v>2626.038373048386</v>
       </c>
       <c r="E20" t="n">
-        <v>35.063588383107</v>
+        <v>38.14331060020861</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.83692538566221</v>
+        <v>99.48486770615463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09728014029773749</v>
+        <v>0.09956769414814522</v>
       </c>
       <c r="D21" t="n">
-        <v>414.2606768251758</v>
+        <v>416.9932940792707</v>
       </c>
       <c r="E21" t="n">
-        <v>35.063588383107</v>
+        <v>38.14331060020861</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.65561315379576</v>
+        <v>62.40192474864603</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>270.7130522749429</v>
+        <v>261.276858922581</v>
       </c>
       <c r="E22" t="n">
         <v>691.7183143291841</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.05729976951812</v>
+        <v>39.87019592855239</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.95544812632687</v>
+        <v>65.50336604378083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02854315971177341</v>
+        <v>0.02561080642221858</v>
       </c>
       <c r="D25" t="n">
-        <v>2498.650280494991</v>
+        <v>2501.364869647454</v>
       </c>
       <c r="E25" t="n">
-        <v>30.30231809686543</v>
+        <v>27.01014432467005</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.203299637903</v>
+        <v>504.5492666273426</v>
       </c>
       <c r="C26" t="n">
-        <v>7.321819550774524</v>
+        <v>7.825824410930351</v>
       </c>
       <c r="D26" t="n">
-        <v>3420.273751719487</v>
+        <v>3412.788080417983</v>
       </c>
       <c r="E26" t="n">
-        <v>59.22689220727746</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F26" t="n">
-        <v>6.79181148780534</v>
+        <v>6.753262118978268</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.8230170751032</v>
+        <v>184.5717832395403</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4682884926444742</v>
+        <v>0.494141443720332</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.224628857368</v>
+        <v>2822.814220478432</v>
       </c>
       <c r="E27" t="n">
-        <v>59.22689220727746</v>
+        <v>63.4777699281481</v>
       </c>
       <c r="F27" t="n">
-        <v>7.033381409639612</v>
+        <v>6.995341805678026</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.6205889299367</v>
+        <v>173.0868857175416</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5352570284770378</v>
+        <v>0.5627499597374411</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.365993835083</v>
+        <v>2792.781320018936</v>
       </c>
       <c r="E28" t="n">
-        <v>15.34001960506608</v>
+        <v>15.52671300561888</v>
       </c>
       <c r="F28" t="n">
-        <v>6.890013980255329</v>
+        <v>6.870975643699553</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.2265600672636</v>
+        <v>181.8733231228038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4682884926444742</v>
+        <v>0.494141443720332</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.436292323807</v>
+        <v>2816.911869006151</v>
       </c>
       <c r="E29" t="n">
-        <v>74.56691181234355</v>
+        <v>79.00448293376698</v>
       </c>
       <c r="F29" t="n">
-        <v>7.016382652029508</v>
+        <v>6.982408553797599</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.2670301369477</v>
+        <v>100.9255009968659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1023882893584467</v>
+        <v>0.1048138220724667</v>
       </c>
       <c r="D30" t="n">
-        <v>2629.298450955235</v>
+        <v>2626.038339915937</v>
       </c>
       <c r="E30" t="n">
-        <v>74.56691181234355</v>
+        <v>79.00448293376698</v>
       </c>
       <c r="F30" t="n">
-        <v>7.225879814772765</v>
+        <v>7.206751369026992</v>
       </c>
       <c r="G30" t="n">
-        <v>97.93001715656253</v>
+        <v>97.73777928887117</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.95662101361438</v>
+        <v>65.50513759613654</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02854462756567067</v>
+        <v>0.02561282891608102</v>
       </c>
       <c r="D31" t="n">
-        <v>2498.649738014168</v>
+        <v>2501.358261517864</v>
       </c>
       <c r="E31" t="n">
-        <v>39.51072935150393</v>
+        <v>40.84884849104267</v>
       </c>
       <c r="F31" t="n">
-        <v>7.421183474962112</v>
+        <v>7.47628748941883</v>
       </c>
       <c r="G31" t="n">
-        <v>94.69887133988617</v>
+        <v>95.00806954489349</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.41202118024108</v>
+        <v>65.29008449528891</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01685971195048521</v>
+        <v>0.02536830118132079</v>
       </c>
       <c r="D32" t="n">
-        <v>2498.649738014168</v>
+        <v>2501.358261517864</v>
       </c>
       <c r="E32" t="n">
-        <v>9.200011861213383</v>
+        <v>13.8526255479196</v>
       </c>
       <c r="F32" t="n">
-        <v>7.65111310608592</v>
+        <v>7.480467867019142</v>
       </c>
       <c r="G32" t="n">
-        <v>95.60854689915837</v>
+        <v>95.02502049461162</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.48807819634447</v>
+        <v>28.07661042351003</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003462255649153726</v>
+        <v>0.003799974877740309</v>
       </c>
       <c r="D33" t="n">
-        <v>2449.861132385793</v>
+        <v>2401.479221602268</v>
       </c>
       <c r="E33" t="n">
-        <v>9.200011861213383</v>
+        <v>13.8526255479196</v>
       </c>
       <c r="F33" t="n">
-        <v>8.1934903490422</v>
+        <v>7.991768853990957</v>
       </c>
       <c r="G33" t="n">
-        <v>95.92566908635398</v>
+        <v>93.81391849912308</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.48807819634447</v>
+        <v>28.07661042351003</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003462255649153726</v>
+        <v>0.003799974877740309</v>
       </c>
       <c r="D34" t="n">
-        <v>111.0516059517091</v>
+        <v>117.6932182643498</v>
       </c>
       <c r="E34" t="n">
-        <v>9.200011861213383</v>
+        <v>13.8526255479196</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.51192926773376</v>
+        <v>30.10136638332568</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>120.1474213115047</v>
+        <v>126.7886326069862</v>
       </c>
       <c r="E35" t="n">
-        <v>9.200011861213383</v>
+        <v>13.8526255479196</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
